--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBFA341-1E08-429D-902F-27AE6F65510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D2E90-A09A-47EF-8732-65547AD15861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53460" yWindow="1410" windowWidth="25395" windowHeight="16665" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="57315" yWindow="0" windowWidth="20955" windowHeight="16665" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B694AA91-5F28-404D-8B9F-89A2BFECAE55}</author>
+    <author>tc={15E8E758-37B6-468B-81A6-B3305FD6827A}</author>
+    <author>tc={95169845-1F7F-4051-990A-FE3D69449576}</author>
+  </authors>
+  <commentList>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{B694AA91-5F28-404D-8B9F-89A2BFECAE55}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q1: 376-380m</t>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="1" shapeId="0" xr:uid="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2: 410-414m</t>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2: 1610-1630m
+Reply:
+    Q1: 1600-1620m</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Price</t>
   </si>
@@ -171,13 +209,52 @@
   </si>
   <si>
     <t>L+SE</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>D/Contracts</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Loss on PP&amp;E</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CFFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -189,6 +266,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -209,10 +299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,8 +320,25 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -258,7 +366,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -299,6 +407,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,12 +710,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L6" dT="2022-09-02T15:00:42.62" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{B694AA91-5F28-404D-8B9F-89A2BFECAE55}">
+    <text>Q1: 376-380m</text>
+  </threadedComment>
+  <threadedComment ref="M6" dT="2022-09-02T14:59:12.36" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
+    <text>Q2: 410-414m</text>
+  </threadedComment>
+  <threadedComment ref="S6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <text>Q2: 1610-1630m</text>
+  </threadedComment>
+  <threadedComment ref="S6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <text>Q1: 1600-1620m</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD0B1-E685-4627-8A01-75A3D2BDF860}">
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,29 +802,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,399 +861,653 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="Q2">
+        <v>2020</v>
+      </c>
+      <c r="R2">
+        <f>+Q2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:U2" si="0">+R2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1406</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1570</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2250</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>154.67500000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>177.53100000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>198.54900000000001</v>
+      </c>
+      <c r="H6" s="4">
         <v>233.54900000000001</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="I6" s="4">
+        <v>270.488</v>
+      </c>
+      <c r="J6" s="4">
+        <v>326.19799999999998</v>
+      </c>
+      <c r="K6" s="4">
+        <v>363.03</v>
+      </c>
+      <c r="L6" s="4">
         <v>406.13799999999998</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="M6" s="4">
+        <v>415</v>
+      </c>
+      <c r="N6" s="4">
+        <v>450</v>
+      </c>
+      <c r="S6" s="3">
+        <f>SUM(K6:N6)</f>
+        <v>1634.1679999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>57.097999999999999</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6">
-        <v>81.924999999999997</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <f>+H3-H4</f>
-        <v>176.45100000000002</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <f>+K3-K4</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <f>+L3-L4</f>
-        <v>324.21299999999997</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
-        <v>94.778999999999996</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6">
-        <v>177.69900000000001</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="6">
+        <v>33.984000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="G7" s="6">
+        <v>46.665999999999997</v>
+      </c>
       <c r="H7" s="6">
-        <v>70.412000000000006</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+        <v>57.097999999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>63.332000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>67.149000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>74.462000000000003</v>
+      </c>
       <c r="L7" s="6">
-        <v>115.27</v>
+        <v>81.924999999999997</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="6">
+        <f>+E6-E7</f>
+        <v>120.691</v>
+      </c>
+      <c r="F8" s="6">
+        <f>+F6-F7</f>
+        <v>136.67500000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f>+G6-G7</f>
+        <v>151.88300000000001</v>
+      </c>
       <c r="H8" s="6">
-        <v>21.146000000000001</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+        <f>+H6-H7</f>
+        <v>176.45100000000002</v>
+      </c>
+      <c r="I8" s="6">
+        <f>+I6-I7</f>
+        <v>207.15600000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <f>+J6-J7</f>
+        <v>259.04899999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <f>+K6-K7</f>
+        <v>288.56799999999998</v>
+      </c>
       <c r="L8" s="6">
-        <v>34.383000000000003</v>
+        <f>+L6-L7</f>
+        <v>324.21299999999997</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="6">
+        <v>56.44</v>
+      </c>
+      <c r="F9" s="6">
+        <v>67.697999999999993</v>
+      </c>
+      <c r="G9" s="6">
+        <v>79.266000000000005</v>
+      </c>
       <c r="H9" s="6">
-        <f>SUM(H6:H8)</f>
-        <v>186.33699999999999</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>94.778999999999996</v>
+      </c>
+      <c r="I9" s="6">
+        <v>112.675</v>
+      </c>
+      <c r="J9" s="6">
+        <v>133.04900000000001</v>
+      </c>
+      <c r="K9" s="6">
+        <v>150.608</v>
+      </c>
       <c r="L9" s="6">
-        <f>SUM(L6:L8)</f>
-        <v>327.35199999999998</v>
+        <v>177.69900000000001</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="6">
+        <v>57.142000000000003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>60.033999999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>64.352999999999994</v>
+      </c>
       <c r="H10" s="6">
-        <f>H5-H9</f>
-        <v>-9.8859999999999673</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+        <v>70.412000000000006</v>
+      </c>
+      <c r="I10" s="6">
+        <v>75.826999999999998</v>
+      </c>
+      <c r="J10" s="6">
+        <v>88.905000000000001</v>
+      </c>
+      <c r="K10" s="6">
+        <v>101.166</v>
+      </c>
       <c r="L10" s="6">
-        <f>L5-L9</f>
-        <v>-3.13900000000001</v>
+        <v>115.27</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="6">
+        <v>16.376000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>17.881</v>
+      </c>
+      <c r="G11" s="6">
+        <v>21.094000000000001</v>
+      </c>
       <c r="H11" s="6">
+        <v>21.146000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>23.548999999999999</v>
+      </c>
+      <c r="J11" s="6">
+        <v>28.64</v>
+      </c>
+      <c r="K11" s="6">
+        <v>26.38</v>
+      </c>
+      <c r="L11" s="6">
+        <v>34.383000000000003</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <f>SUM(E9:E11)</f>
+        <v>129.958</v>
+      </c>
+      <c r="F12" s="6">
+        <f>SUM(F9:F11)</f>
+        <v>145.613</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(G9:G11)</f>
+        <v>164.71299999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H9:H11)</f>
+        <v>186.33699999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <f>SUM(I9:I11)</f>
+        <v>212.05100000000002</v>
+      </c>
+      <c r="J12" s="6">
+        <f>SUM(J9:J11)</f>
+        <v>250.59399999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <f>SUM(K9:K11)</f>
+        <v>278.154</v>
+      </c>
+      <c r="L12" s="6">
+        <f>SUM(L9:L11)</f>
+        <v>327.35199999999998</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <f>E8-E12</f>
+        <v>-9.2669999999999959</v>
+      </c>
+      <c r="F13" s="6">
+        <f>F8-F12</f>
+        <v>-8.9379999999999882</v>
+      </c>
+      <c r="G13" s="6">
+        <f>G8-G12</f>
+        <v>-12.829999999999984</v>
+      </c>
+      <c r="H13" s="6">
+        <f>H8-H12</f>
+        <v>-9.8859999999999673</v>
+      </c>
+      <c r="I13" s="6">
+        <f>I8-I12</f>
+        <v>-4.8950000000000102</v>
+      </c>
+      <c r="J13" s="6">
+        <f>J8-J12</f>
+        <v>8.4549999999999841</v>
+      </c>
+      <c r="K13" s="6">
+        <f>K8-K12</f>
+        <v>10.413999999999987</v>
+      </c>
+      <c r="L13" s="6">
+        <f>L8-L12</f>
+        <v>-3.13900000000001</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>-5.2880000000000003</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-6.2290000000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <f>-5.472+5.773</f>
+        <v>0.30099999999999927</v>
+      </c>
+      <c r="H14" s="6">
         <f>-5.064+5.292</f>
         <v>0.22799999999999976</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="I14" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="J14" s="6">
+        <f>-5.604+5.681</f>
+        <v>7.6999999999999957E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <f>-5.247+5.687</f>
+        <v>0.44000000000000039</v>
+      </c>
+      <c r="L14" s="6">
         <f>-4.541+7.669</f>
         <v>3.1279999999999992</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <f>+H10+H11</f>
-        <v>-9.6579999999999675</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
-        <f>+L10+L11</f>
-        <v>-1.1000000000010779E-2</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
-        <v>-2.96</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
-        <v>4.8680000000000003</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <f>+H12-H13</f>
-        <v>-6.6979999999999675</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
-        <f>+L12-L13</f>
-        <v>-4.8790000000000111</v>
-      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
-        <f>+H14/H16</f>
-        <v>-2.1745411809011676E-2</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7">
-        <f>+L14/L16</f>
-        <v>-1.5498975523753589E-2</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <f>+E13+E14</f>
+        <v>-14.554999999999996</v>
+      </c>
+      <c r="F15" s="6">
+        <f>+F13+F14</f>
+        <v>-15.166999999999987</v>
+      </c>
+      <c r="G15" s="6">
+        <f>+G13+G14</f>
+        <v>-12.528999999999986</v>
+      </c>
+      <c r="H15" s="6">
+        <f>+H13+H14</f>
+        <v>-9.6579999999999675</v>
+      </c>
+      <c r="I15" s="6">
+        <f>+I13+I14</f>
+        <v>-4.7670000000000101</v>
+      </c>
+      <c r="J15" s="6">
+        <f>+J13+J14</f>
+        <v>8.531999999999984</v>
+      </c>
+      <c r="K15" s="6">
+        <f>+K13+K14</f>
+        <v>10.853999999999989</v>
+      </c>
+      <c r="L15" s="6">
+        <f>+L13+L14</f>
+        <v>-1.1000000000010779E-2</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="6">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-0.53900000000000003</v>
+      </c>
       <c r="H16" s="6">
-        <v>308.01900000000001</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+        <v>-2.96</v>
+      </c>
+      <c r="I16" s="6">
+        <v>-0.71699999999999997</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.363</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.1160000000000001</v>
+      </c>
       <c r="L16" s="6">
-        <v>314.79500000000002</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="20" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <f>238.859+1464.681+3.214</f>
-        <v>1706.7539999999999</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
-        <v>305.50099999999998</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
-        <f>27.345+46.84</f>
-        <v>74.185000000000002</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
-        <v>33.201999999999998</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <f>+E15-E16</f>
+        <v>-15.149999999999997</v>
+      </c>
+      <c r="F17" s="6">
+        <f>+F15-F16</f>
+        <v>-16.159999999999986</v>
+      </c>
+      <c r="G17" s="6">
+        <f>+G15-G16</f>
+        <v>-11.989999999999986</v>
+      </c>
+      <c r="H17" s="6">
+        <f>+H15-H16</f>
+        <v>-6.6979999999999675</v>
+      </c>
+      <c r="I17" s="6">
+        <f>+I15-I16</f>
+        <v>-4.0500000000000105</v>
+      </c>
+      <c r="J17" s="6">
+        <f>+J15-J16</f>
+        <v>7.1689999999999845</v>
+      </c>
+      <c r="K17" s="6">
+        <f>+K15-K16</f>
+        <v>9.7379999999999889</v>
+      </c>
+      <c r="L17" s="6">
+        <f>+L15-L16</f>
+        <v>-4.8790000000000111</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <f>+E17/E19</f>
+        <v>-5.0073705850856368E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <f>+F17/F19</f>
+        <v>-5.3147929500060795E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <f>+G17/G19</f>
+        <v>-3.9178653352241861E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f>+H17/H19</f>
+        <v>-2.1745411809011676E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <f>+I17/I19</f>
+        <v>-1.3054114947122809E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <f>+J17/J19</f>
+        <v>2.0727021455604115E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <f>+K17/K19</f>
+        <v>2.8171540321927365E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <f>+L17/L19</f>
+        <v>-1.5498975523753589E-2</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>302.55399999999997</v>
+      </c>
+      <c r="F19" s="6">
+        <v>304.05700000000002</v>
+      </c>
+      <c r="G19" s="6">
+        <v>306.03399999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <v>308.01900000000001</v>
+      </c>
+      <c r="I19" s="6">
+        <v>310.24700000000001</v>
+      </c>
+      <c r="J19" s="6">
+        <v>345.87700000000001</v>
+      </c>
+      <c r="K19" s="6">
+        <v>345.66800000000001</v>
+      </c>
+      <c r="L19" s="6">
+        <v>314.79500000000002</v>
+      </c>
+      <c r="M19" s="6">
+        <v>347</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="21" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10">
+        <f t="shared" ref="I21:K21" si="1">+I6/E6-1</f>
+        <v>0.74875060610958455</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.83741431074009598</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.82841515192723181</v>
+      </c>
+      <c r="L21" s="10">
+        <f>+L6/H6-1</f>
+        <v>0.73898411040081502</v>
+      </c>
+      <c r="M21" s="10">
+        <f>+M6/I6-1</f>
+        <v>0.53426399692407789</v>
+      </c>
+      <c r="N21" s="10">
+        <f>+N6/J6-1</f>
+        <v>0.37953022397439606</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22:H22" si="2">+E8/E6</f>
+        <v>0.78028770001616288</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76986554460911061</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.7649648197674126</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.75552025485015994</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" ref="I22:L22" si="3">+I8/I6</f>
+        <v>0.76586022300434775</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79414649997854059</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79488747486433631</v>
+      </c>
+      <c r="L22" s="15">
+        <f>+L8/L6</f>
+        <v>0.79828284967178642</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" ref="M22:N22" si="4">+M8/M6</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1132,16 +1517,20 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="6">
+        <f>271.686+1399.323+3.424</f>
+        <v>1674.433</v>
+      </c>
       <c r="L24" s="6">
-        <v>97.790999999999997</v>
+        <f>238.859+1464.681+3.214</f>
+        <v>1706.7539999999999</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1151,16 +1540,18 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6">
+        <v>275.34199999999998</v>
+      </c>
       <c r="L25" s="6">
-        <v>64.016000000000005</v>
+        <v>305.50099999999998</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1170,17 +1561,20 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="6">
+        <f>24.688+42.753</f>
+        <v>67.441000000000003</v>
+      </c>
       <c r="L26" s="6">
-        <f>334.687+17.96</f>
-        <v>352.64699999999999</v>
+        <f>27.345+46.84</f>
+        <v>74.185000000000002</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1190,16 +1584,18 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="6">
+        <v>32.631999999999998</v>
+      </c>
       <c r="L27" s="6">
-        <v>20.390999999999998</v>
+        <v>33.201999999999998</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1209,17 +1605,39 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="6">
+        <v>90.712999999999994</v>
+      </c>
       <c r="L28" s="6">
-        <f>SUM(L20:L27)</f>
-        <v>2654.4870000000001</v>
+        <v>97.790999999999997</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
+    <row r="29" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
+        <v>61.920999999999999</v>
+      </c>
+      <c r="L29" s="6">
+        <v>64.016000000000005</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
     <row r="30" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1229,16 +1647,20 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="6">
+        <f>292.032+14.088</f>
+        <v>306.12</v>
+      </c>
       <c r="L30" s="6">
-        <v>47.65</v>
+        <f>334.687+17.96</f>
+        <v>352.64699999999999</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1248,16 +1670,18 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>20.413</v>
+      </c>
       <c r="L31" s="6">
-        <v>111.622</v>
+        <v>20.390999999999998</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1267,37 +1691,20 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="6">
+        <f>SUM(K24:K31)</f>
+        <v>2529.0149999999999</v>
+      </c>
       <c r="L32" s="6">
-        <f>22.357+51.771</f>
-        <v>74.128</v>
+        <f>SUM(L24:L31)</f>
+        <v>2654.4870000000001</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6">
-        <f>444.247+14.526</f>
-        <v>458.77300000000002</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
     <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1307,16 +1714,18 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="6">
+        <v>18.629000000000001</v>
+      </c>
       <c r="L34" s="6">
-        <v>737.16</v>
+        <v>47.65</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1326,16 +1735,18 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="6">
+        <v>108.211</v>
+      </c>
       <c r="L35" s="6">
-        <v>10.034000000000001</v>
+        <v>111.622</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1345,16 +1756,20 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="6">
+        <f>20.32+51.817</f>
+        <v>72.137</v>
+      </c>
       <c r="L36" s="6">
-        <v>1215.1199999999999</v>
+        <f>22.357+51.771</f>
+        <v>74.128</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1364,16 +1779,340 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="K37" s="6">
+        <f>454.812+12.798</f>
+        <v>467.61</v>
+      </c>
       <c r="L37" s="6">
-        <f>SUM(L30:L36)</f>
-        <v>2654.4870000000001</v>
+        <f>444.247+14.526</f>
+        <v>458.77300000000002</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
+    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
+        <v>736.31799999999998</v>
+      </c>
+      <c r="L38" s="6">
+        <v>737.16</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
+        <v>9.2530000000000001</v>
+      </c>
+      <c r="L39" s="6">
+        <v>10.034000000000001</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
+        <v>1116.857</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1215.1199999999999</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6">
+        <f>SUM(K34:K40)</f>
+        <v>2529.0149999999999</v>
+      </c>
+      <c r="L41" s="6">
+        <f>SUM(L34:L40)</f>
+        <v>2654.4870000000001</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6">
+        <f>+K17</f>
+        <v>9.7379999999999889</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6">
+        <v>9.7379999999999995</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6">
+        <v>3.9590000000000001</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
+        <v>66.884</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6">
+        <f>-7.319-8.166-8.391-0.805-7.624-2.911+81.735</f>
+        <v>46.518999999999998</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6">
+        <f>SUM(K44:K53)</f>
+        <v>147.38799999999998</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0C2CB192-972E-49C2-986E-DB4F425D454A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D2E90-A09A-47EF-8732-65547AD15861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC6A63E-DE74-4A6C-9531-289905C4B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57315" yWindow="0" windowWidth="20955" windowHeight="16665" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="-18690" yWindow="540" windowWidth="18375" windowHeight="19260" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     Q2: 410-414m</t>
       </text>
     </comment>
-    <comment ref="S6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <comment ref="AB6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Price</t>
   </si>
@@ -248,13 +248,37 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -273,12 +297,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -303,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -328,12 +346,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -342,7 +355,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BB67D2C7-AFA5-4152-9AAB-B3E3F75CF998}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -358,16 +373,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76932</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76932</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>151668</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -382,8 +397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="57150"/>
-          <a:ext cx="0" cy="8572500"/>
+          <a:off x="12540028" y="0"/>
+          <a:ext cx="0" cy="9178437"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -416,9 +431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,10 +733,10 @@
   <threadedComment ref="M6" dT="2022-09-02T14:59:12.36" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
     <text>Q2: 410-414m</text>
   </threadedComment>
-  <threadedComment ref="S6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="AB6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="S6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="AB6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
 </ThreadedComments>
@@ -731,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD0B1-E685-4627-8A01-75A3D2BDF860}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>97.2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -750,10 +765,11 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>315</v>
+        <f>311.11036+26.041915</f>
+        <v>337.15227500000003</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="14:16" x14ac:dyDescent="0.2">
@@ -762,7 +778,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>30618</v>
+        <v>37761.054800000005</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -793,7 +809,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>29648</v>
+        <v>36791.054800000005</v>
       </c>
     </row>
   </sheetData>
@@ -803,28 +819,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,27 +877,51 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2">
         <v>2020</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2021</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:U2" si="0">+R2+1</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AD2" si="0">+AA2+1</f>
         <v>2022</v>
       </c>
-      <c r="T2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="U2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -898,7 +938,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -929,17 +969,38 @@
         <v>406.13799999999998</v>
       </c>
       <c r="M6" s="4">
-        <v>415</v>
+        <v>436.53300000000002</v>
       </c>
       <c r="N6" s="4">
-        <v>450</v>
-      </c>
-      <c r="S6" s="3">
+        <v>469.399</v>
+      </c>
+      <c r="O6" s="4">
+        <v>481.714</v>
+      </c>
+      <c r="P6" s="4">
+        <v>509.46</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>547.53599999999994</v>
+      </c>
+      <c r="R6" s="4">
+        <v>589.649</v>
+      </c>
+      <c r="S6" s="4">
+        <v>611.25300000000004</v>
+      </c>
+      <c r="T6" s="4">
+        <v>645.279</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="AB6" s="3">
         <f>SUM(K6:N6)</f>
-        <v>1634.1679999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1675.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -969,51 +1030,109 @@
       <c r="L7" s="6">
         <v>81.924999999999997</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="6">
+        <v>93.599000000000004</v>
+      </c>
+      <c r="N7" s="6">
+        <v>96.757000000000005</v>
+      </c>
+      <c r="O7" s="6">
+        <v>99.914000000000001</v>
+      </c>
+      <c r="P7" s="6">
+        <v>101.846</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>103.319</v>
+      </c>
+      <c r="R7" s="6">
+        <v>104.82899999999999</v>
+      </c>
+      <c r="S7" s="6">
+        <v>110.098</v>
+      </c>
+      <c r="T7" s="6">
+        <v>123.499</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f>+E6-E7</f>
+        <f t="shared" ref="E8:L8" si="1">+E6-E7</f>
         <v>120.691</v>
       </c>
       <c r="F8" s="6">
-        <f>+F6-F7</f>
+        <f t="shared" si="1"/>
         <v>136.67500000000001</v>
       </c>
       <c r="G8" s="6">
-        <f>+G6-G7</f>
+        <f t="shared" si="1"/>
         <v>151.88300000000001</v>
       </c>
       <c r="H8" s="6">
-        <f>+H6-H7</f>
+        <f t="shared" si="1"/>
         <v>176.45100000000002</v>
       </c>
       <c r="I8" s="6">
-        <f>+I6-I7</f>
+        <f t="shared" si="1"/>
         <v>207.15600000000001</v>
       </c>
       <c r="J8" s="6">
-        <f>+J6-J7</f>
+        <f t="shared" si="1"/>
         <v>259.04899999999998</v>
       </c>
       <c r="K8" s="6">
-        <f>+K6-K7</f>
+        <f t="shared" si="1"/>
         <v>288.56799999999998</v>
       </c>
       <c r="L8" s="6">
-        <f>+L6-L7</f>
+        <f t="shared" si="1"/>
         <v>324.21299999999997</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="6">
+        <f>+M6-M7</f>
+        <v>342.93400000000003</v>
+      </c>
+      <c r="N8" s="6">
+        <f>+N6-N7</f>
+        <v>372.642</v>
+      </c>
+      <c r="O8" s="6">
+        <f>+O6-O7</f>
+        <v>381.8</v>
+      </c>
+      <c r="P8" s="6">
+        <f>+P6-P7</f>
+        <v>407.61399999999998</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>+Q6-Q7</f>
+        <v>444.21699999999993</v>
+      </c>
+      <c r="R8" s="6">
+        <f>+R6-R7</f>
+        <v>484.82</v>
+      </c>
+      <c r="S8" s="6">
+        <f>+S6-S7</f>
+        <v>501.15500000000003</v>
+      </c>
+      <c r="T8" s="6">
+        <f>+T6-T7</f>
+        <v>521.78</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1043,10 +1162,35 @@
       <c r="L9" s="6">
         <v>177.69900000000001</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="6">
+        <v>205.38800000000001</v>
+      </c>
+      <c r="N9" s="6">
+        <v>218.65600000000001</v>
+      </c>
+      <c r="O9" s="6">
+        <v>229.47800000000001</v>
+      </c>
+      <c r="P9" s="6">
+        <v>239.494</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>240.22499999999999</v>
+      </c>
+      <c r="R9" s="6">
+        <v>253.25</v>
+      </c>
+      <c r="S9" s="6">
+        <v>269.988</v>
+      </c>
+      <c r="T9" s="6">
+        <v>274.59899999999999</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1076,10 +1220,35 @@
       <c r="L10" s="6">
         <v>115.27</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="6">
+        <v>129.49299999999999</v>
+      </c>
+      <c r="N10" s="6">
+        <v>149.35900000000001</v>
+      </c>
+      <c r="O10" s="6">
+        <v>144.971</v>
+      </c>
+      <c r="P10" s="6">
+        <v>147.45500000000001</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>156.87</v>
+      </c>
+      <c r="R10" s="6">
+        <v>159.97999999999999</v>
+      </c>
+      <c r="S10" s="6">
+        <v>173.881</v>
+      </c>
+      <c r="T10" s="6">
+        <v>187.005</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1109,92 +1278,183 @@
       <c r="L11" s="6">
         <v>34.383000000000003</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="6">
+        <v>39.395000000000003</v>
+      </c>
+      <c r="N11" s="6">
+        <v>39.255000000000003</v>
+      </c>
+      <c r="O11" s="6">
+        <v>42.320999999999998</v>
+      </c>
+      <c r="P11" s="6">
+        <v>42.670999999999999</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>51.351999999999997</v>
+      </c>
+      <c r="R11" s="6">
+        <v>43.847999999999999</v>
+      </c>
+      <c r="S11" s="6">
+        <v>45.29</v>
+      </c>
+      <c r="T11" s="6">
+        <v>47.558</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f>SUM(E9:E11)</f>
+        <f t="shared" ref="E12:L12" si="2">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
-        <f>SUM(F9:F11)</f>
+        <f t="shared" si="2"/>
         <v>145.613</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(G9:G11)</f>
+        <f t="shared" si="2"/>
         <v>164.71299999999999</v>
       </c>
       <c r="H12" s="6">
-        <f>SUM(H9:H11)</f>
+        <f t="shared" si="2"/>
         <v>186.33699999999999</v>
       </c>
       <c r="I12" s="6">
-        <f>SUM(I9:I11)</f>
+        <f t="shared" si="2"/>
         <v>212.05100000000002</v>
       </c>
       <c r="J12" s="6">
-        <f>SUM(J9:J11)</f>
+        <f t="shared" si="2"/>
         <v>250.59399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f>SUM(K9:K11)</f>
+        <f t="shared" si="2"/>
         <v>278.154</v>
       </c>
       <c r="L12" s="6">
-        <f>SUM(L9:L11)</f>
+        <f t="shared" si="2"/>
         <v>327.35199999999998</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="6">
+        <f>+M11+M10+M9</f>
+        <v>374.27600000000001</v>
+      </c>
+      <c r="N12" s="6">
+        <f>+N11+N10+N9</f>
+        <v>407.27</v>
+      </c>
+      <c r="O12" s="6">
+        <f>+O11+O10+O9</f>
+        <v>416.77</v>
+      </c>
+      <c r="P12" s="6">
+        <f>+P11+P10+P9</f>
+        <v>429.62</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>+Q11+Q10+Q9</f>
+        <v>448.447</v>
+      </c>
+      <c r="R12" s="6">
+        <f>+R11+R10+R9</f>
+        <v>457.07799999999997</v>
+      </c>
+      <c r="S12" s="6">
+        <f>+S11+S10+S9</f>
+        <v>489.15899999999999</v>
+      </c>
+      <c r="T12" s="6">
+        <f>+T11+T10+T9</f>
+        <v>509.16199999999998</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f>E8-E12</f>
+        <f t="shared" ref="E13:L13" si="3">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
-        <f>F8-F12</f>
+        <f t="shared" si="3"/>
         <v>-8.9379999999999882</v>
       </c>
       <c r="G13" s="6">
-        <f>G8-G12</f>
+        <f t="shared" si="3"/>
         <v>-12.829999999999984</v>
       </c>
       <c r="H13" s="6">
-        <f>H8-H12</f>
+        <f t="shared" si="3"/>
         <v>-9.8859999999999673</v>
       </c>
       <c r="I13" s="6">
-        <f>I8-I12</f>
+        <f t="shared" si="3"/>
         <v>-4.8950000000000102</v>
       </c>
       <c r="J13" s="6">
-        <f>J8-J12</f>
+        <f t="shared" si="3"/>
         <v>8.4549999999999841</v>
       </c>
       <c r="K13" s="6">
-        <f>K8-K12</f>
+        <f t="shared" si="3"/>
         <v>10.413999999999987</v>
       </c>
       <c r="L13" s="6">
-        <f>L8-L12</f>
+        <f t="shared" si="3"/>
         <v>-3.13900000000001</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="6">
+        <f>+M8-M12</f>
+        <v>-31.341999999999985</v>
+      </c>
+      <c r="N13" s="6">
+        <f>+N8-N12</f>
+        <v>-34.627999999999986</v>
+      </c>
+      <c r="O13" s="6">
+        <f>+O8-O12</f>
+        <v>-34.96999999999997</v>
+      </c>
+      <c r="P13" s="6">
+        <f>+P8-P12</f>
+        <v>-22.006000000000029</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>+Q8-Q12</f>
+        <v>-4.230000000000075</v>
+      </c>
+      <c r="R13" s="6">
+        <f>+R8-R12</f>
+        <v>27.742000000000019</v>
+      </c>
+      <c r="S13" s="6">
+        <f>+S8-S12</f>
+        <v>11.996000000000038</v>
+      </c>
+      <c r="T13" s="6">
+        <f>+T8-T12</f>
+        <v>12.617999999999995</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1229,51 +1489,117 @@
         <f>-4.541+7.669</f>
         <v>3.1279999999999992</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="6">
+        <f>-3.728+12.011</f>
+        <v>8.2829999999999995</v>
+      </c>
+      <c r="N14" s="6">
+        <f>-3.019+11.793</f>
+        <v>8.7739999999999991</v>
+      </c>
+      <c r="O14" s="6">
+        <f>-2.181+16.727</f>
+        <v>14.545999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>-1.526+22.624</f>
+        <v>21.097999999999999</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>-1.303+29.833</f>
+        <v>28.529999999999998</v>
+      </c>
+      <c r="R14" s="6">
+        <f>-1.292+30.817</f>
+        <v>29.524999999999999</v>
+      </c>
+      <c r="S14" s="6">
+        <f>-1.374+35.563</f>
+        <v>34.189</v>
+      </c>
+      <c r="T14" s="6">
+        <f>-1.477+36.652</f>
+        <v>35.175000000000004</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f>+E13+E14</f>
+        <f t="shared" ref="E15:L15" si="4">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
-        <f>+F13+F14</f>
+        <f t="shared" si="4"/>
         <v>-15.166999999999987</v>
       </c>
       <c r="G15" s="6">
-        <f>+G13+G14</f>
+        <f t="shared" si="4"/>
         <v>-12.528999999999986</v>
       </c>
       <c r="H15" s="6">
-        <f>+H13+H14</f>
+        <f t="shared" si="4"/>
         <v>-9.6579999999999675</v>
       </c>
       <c r="I15" s="6">
-        <f>+I13+I14</f>
+        <f t="shared" si="4"/>
         <v>-4.7670000000000101</v>
       </c>
       <c r="J15" s="6">
-        <f>+J13+J14</f>
+        <f t="shared" si="4"/>
         <v>8.531999999999984</v>
       </c>
       <c r="K15" s="6">
-        <f>+K13+K14</f>
+        <f t="shared" si="4"/>
         <v>10.853999999999989</v>
       </c>
       <c r="L15" s="6">
-        <f>+L13+L14</f>
+        <f t="shared" si="4"/>
         <v>-1.1000000000010779E-2</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="6">
+        <f>+M13+M14</f>
+        <v>-23.058999999999983</v>
+      </c>
+      <c r="N15" s="6">
+        <f>+N13+N14</f>
+        <v>-25.853999999999985</v>
+      </c>
+      <c r="O15" s="6">
+        <f>+O13+O14</f>
+        <v>-20.423999999999971</v>
+      </c>
+      <c r="P15" s="6">
+        <f>+P13+P14</f>
+        <v>-0.90800000000002967</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>+Q13+Q14</f>
+        <v>24.299999999999923</v>
+      </c>
+      <c r="R15" s="6">
+        <f>+R13+R14</f>
+        <v>57.267000000000017</v>
+      </c>
+      <c r="S15" s="6">
+        <f>+S13+S14</f>
+        <v>46.185000000000038</v>
+      </c>
+      <c r="T15" s="6">
+        <f>+T13+T14</f>
+        <v>47.792999999999999</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1303,92 +1629,183 @@
       <c r="L16" s="6">
         <v>4.8680000000000003</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="6">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3.18</v>
+      </c>
+      <c r="O16" s="6">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="R16" s="6">
+        <v>3.274</v>
+      </c>
+      <c r="S16" s="6">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="T16" s="6">
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f>+E15-E16</f>
+        <f t="shared" ref="E17:L17" si="5">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
-        <f>+F15-F16</f>
+        <f t="shared" si="5"/>
         <v>-16.159999999999986</v>
       </c>
       <c r="G17" s="6">
-        <f>+G15-G16</f>
+        <f t="shared" si="5"/>
         <v>-11.989999999999986</v>
       </c>
       <c r="H17" s="6">
-        <f>+H15-H16</f>
+        <f t="shared" si="5"/>
         <v>-6.6979999999999675</v>
       </c>
       <c r="I17" s="6">
-        <f>+I15-I16</f>
+        <f t="shared" si="5"/>
         <v>-4.0500000000000105</v>
       </c>
       <c r="J17" s="6">
-        <f>+J15-J16</f>
+        <f t="shared" si="5"/>
         <v>7.1689999999999845</v>
       </c>
       <c r="K17" s="6">
-        <f>+K15-K16</f>
+        <f t="shared" si="5"/>
         <v>9.7379999999999889</v>
       </c>
       <c r="L17" s="6">
-        <f>+L15-L16</f>
+        <f t="shared" si="5"/>
         <v>-4.8790000000000111</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="6">
+        <f>+M15-M16</f>
+        <v>-25.984999999999985</v>
+      </c>
+      <c r="N17" s="6">
+        <f>+N15-N16</f>
+        <v>-29.033999999999985</v>
+      </c>
+      <c r="O17" s="6">
+        <f>+O15-O16</f>
+        <v>-24.08599999999997</v>
+      </c>
+      <c r="P17" s="6">
+        <f>+P15-P16</f>
+        <v>-3.9690000000000296</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>+Q15-Q16</f>
+        <v>22.629999999999924</v>
+      </c>
+      <c r="R17" s="6">
+        <f>+R15-R16</f>
+        <v>53.993000000000016</v>
+      </c>
+      <c r="S17" s="6">
+        <f>+S15-S16</f>
+        <v>42.631000000000036</v>
+      </c>
+      <c r="T17" s="6">
+        <f>+T15-T16</f>
+        <v>43.823999999999998</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f>+E17/E19</f>
+        <f t="shared" ref="E18:L18" si="6">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
-        <f>+F17/F19</f>
+        <f t="shared" si="6"/>
         <v>-5.3147929500060795E-2</v>
       </c>
       <c r="G18" s="7">
-        <f>+G17/G19</f>
+        <f t="shared" si="6"/>
         <v>-3.9178653352241861E-2</v>
       </c>
       <c r="H18" s="7">
-        <f>+H17/H19</f>
+        <f t="shared" si="6"/>
         <v>-2.1745411809011676E-2</v>
       </c>
       <c r="I18" s="7">
-        <f>+I17/I19</f>
+        <f t="shared" si="6"/>
         <v>-1.3054114947122809E-2</v>
       </c>
       <c r="J18" s="7">
-        <f>+J17/J19</f>
+        <f t="shared" si="6"/>
         <v>2.0727021455604115E-2</v>
       </c>
       <c r="K18" s="7">
-        <f>+K17/K19</f>
+        <f t="shared" si="6"/>
         <v>2.8171540321927365E-2</v>
       </c>
       <c r="L18" s="7">
-        <f>+L17/L19</f>
+        <f t="shared" si="6"/>
         <v>-1.5498975523753589E-2</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="7">
+        <f>+M17/M19</f>
+        <v>-8.223361498781602E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <f>+N17/N19</f>
+        <v>-9.1489468974122995E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <f>+O17/O19</f>
+        <v>-7.5437068960117162E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <f>+P17/P19</f>
+        <v>-1.2317862296913644E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>+Q17/Q19</f>
+        <v>6.4416226171262123E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <f>+R17/R19</f>
+        <v>0.15299498168072614</v>
+      </c>
+      <c r="S18" s="7">
+        <f>+S17/S19</f>
+        <v>0.11975706432121007</v>
+      </c>
+      <c r="T18" s="7">
+        <f>+T17/T19</f>
+        <v>0.12284577002859225</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1419,11 +1836,34 @@
         <v>314.79500000000002</v>
       </c>
       <c r="M19" s="6">
-        <v>347</v>
-      </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="21" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>315.99</v>
+      </c>
+      <c r="N19" s="6">
+        <v>317.34800000000001</v>
+      </c>
+      <c r="O19" s="6">
+        <v>319.286</v>
+      </c>
+      <c r="P19" s="6">
+        <v>322.21499999999997</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>351.30900000000003</v>
+      </c>
+      <c r="R19" s="6">
+        <v>352.90699999999998</v>
+      </c>
+      <c r="S19" s="6">
+        <v>355.97899999999998</v>
+      </c>
+      <c r="T19" s="6">
+        <v>356.74</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="21" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1434,15 +1874,15 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="1">+I6/E6-1</f>
+        <f t="shared" ref="I21:K21" si="7">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.83741431074009598</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.82841515192723181</v>
       </c>
       <c r="L21" s="10">
@@ -1451,61 +1891,113 @@
       </c>
       <c r="M21" s="10">
         <f>+M6/I6-1</f>
-        <v>0.53426399692407789</v>
+        <v>0.61387196474520134</v>
       </c>
       <c r="N21" s="10">
         <f>+N6/J6-1</f>
-        <v>0.37953022397439606</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+        <v>0.43900023911857233</v>
+      </c>
+      <c r="O21" s="10">
+        <f>+O6/K6-1</f>
+        <v>0.32692614935404807</v>
+      </c>
+      <c r="P21" s="10">
+        <f>+P6/L6-1</f>
+        <v>0.25440121338067367</v>
+      </c>
+      <c r="Q21" s="10">
+        <f>+Q6/M6-1</f>
+        <v>0.25428318134024219</v>
+      </c>
+      <c r="R21" s="10">
+        <f>+R6/N6-1</f>
+        <v>0.25617864545940661</v>
+      </c>
+      <c r="S21" s="10">
+        <f>+S6/O6-1</f>
+        <v>0.26891267432542976</v>
+      </c>
+      <c r="T21" s="10">
+        <f>+T6/P6-1</f>
+        <v>0.26659404074902837</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <f t="shared" ref="E22:H22" si="2">+E8/E6</f>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:H22" si="8">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
-      <c r="F22" s="15">
-        <f t="shared" si="2"/>
+      <c r="F22" s="12">
+        <f t="shared" si="8"/>
         <v>0.76986554460911061</v>
       </c>
-      <c r="G22" s="15">
-        <f t="shared" si="2"/>
+      <c r="G22" s="12">
+        <f t="shared" si="8"/>
         <v>0.7649648197674126</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" si="2"/>
+      <c r="H22" s="12">
+        <f t="shared" si="8"/>
         <v>0.75552025485015994</v>
       </c>
-      <c r="I22" s="15">
-        <f t="shared" ref="I22:L22" si="3">+I8/I6</f>
+      <c r="I22" s="12">
+        <f t="shared" ref="I22:K22" si="9">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="3"/>
+      <c r="J22" s="12">
+        <f t="shared" si="9"/>
         <v>0.79414649997854059</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="3"/>
+      <c r="K22" s="12">
+        <f t="shared" si="9"/>
         <v>0.79488747486433631</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="12">
         <f>+L8/L6</f>
         <v>0.79828284967178642</v>
       </c>
-      <c r="M22" s="15">
-        <f t="shared" ref="M22:N22" si="4">+M8/M6</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="12">
+        <f t="shared" ref="M22:P22" si="10">+M8/M6</f>
+        <v>0.78558551129009724</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="10"/>
+        <v>0.79387045988593929</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="10"/>
+        <v>0.79258647247121738</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="10"/>
+        <v>0.80009029168138812</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" ref="Q22:R22" si="11">+Q8/Q6</f>
+        <v>0.81130190526285029</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="11"/>
+        <v>0.82221796356815668</v>
+      </c>
+      <c r="S22" s="12">
+        <f t="shared" ref="S22:T22" si="12">+S8/S6</f>
+        <v>0.81988145661452783</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" si="12"/>
+        <v>0.80861146883751056</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="24" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +2019,23 @@
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6">
+        <f>282.218+2499.151</f>
+        <v>2781.3689999999997</v>
+      </c>
+      <c r="T24" s="6">
+        <f>410.963+2549.143</f>
+        <v>2960.1060000000002</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1548,8 +2055,21 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6">
+        <v>451.05700000000002</v>
+      </c>
+      <c r="T25" s="6">
+        <v>533.29200000000003</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1571,8 +2091,23 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6">
+        <f>46.391+73.067</f>
+        <v>119.458</v>
+      </c>
+      <c r="T26" s="6">
+        <f>49.518+77.04</f>
+        <v>126.55800000000001</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +2127,21 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6">
+        <v>54.845999999999997</v>
+      </c>
+      <c r="T27" s="6">
+        <v>49.173999999999999</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
@@ -1613,8 +2161,21 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6">
+        <v>182.41900000000001</v>
+      </c>
+      <c r="T28" s="6">
+        <v>198.911</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -1634,8 +2195,21 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
+        <v>173.27</v>
+      </c>
+      <c r="T29" s="6">
+        <v>166.941</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1657,8 +2231,23 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6">
+        <f>351.437+7.312</f>
+        <v>358.74900000000002</v>
+      </c>
+      <c r="T30" s="6">
+        <f>350.864+5.804</f>
+        <v>356.66799999999995</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -1678,8 +2267,21 @@
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
+        <v>20.297999999999998</v>
+      </c>
+      <c r="T31" s="6">
+        <v>20.741</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1701,8 +2303,23 @@
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-    </row>
-    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6">
+        <f>SUM(S24:S31)</f>
+        <v>4141.4659999999994</v>
+      </c>
+      <c r="T32" s="6">
+        <f>SUM(T24:T31)</f>
+        <v>4412.3909999999996</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="34" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -1722,8 +2339,21 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
+        <v>64.316000000000003</v>
+      </c>
+      <c r="T34" s="6">
+        <v>115.991</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -1743,8 +2373,21 @@
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6">
+        <v>117.41200000000001</v>
+      </c>
+      <c r="T35" s="6">
+        <v>104.791</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -1766,8 +2409,23 @@
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6">
+        <f>23.591+190.891</f>
+        <v>214.482</v>
+      </c>
+      <c r="T36" s="6">
+        <f>24.565+193.835</f>
+        <v>218.4</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -1789,8 +2447,23 @@
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6">
+        <f>767.474+26.191</f>
+        <v>793.66500000000008</v>
+      </c>
+      <c r="T37" s="6">
+        <f>801.562+14.049</f>
+        <v>815.61099999999999</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1810,8 +2483,21 @@
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6">
+        <v>743.08500000000004</v>
+      </c>
+      <c r="T38" s="6">
+        <v>743.97</v>
+      </c>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
@@ -1831,8 +2517,21 @@
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6">
+        <v>6.1509999999999998</v>
+      </c>
+      <c r="T39" s="6">
+        <v>6.32</v>
+      </c>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>43</v>
       </c>
@@ -1852,8 +2551,21 @@
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6">
+        <v>2202.355</v>
+      </c>
+      <c r="T40" s="6">
+        <v>2407.308</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1875,8 +2587,23 @@
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-    </row>
-    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6">
+        <f>SUM(S34:S40)</f>
+        <v>4141.4660000000003</v>
+      </c>
+      <c r="T41" s="6">
+        <f>SUM(T34:T40)</f>
+        <v>4412.3909999999996</v>
+      </c>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+    </row>
+    <row r="43" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
@@ -1895,8 +2622,23 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6">
+        <f>+S17</f>
+        <v>42.631000000000036</v>
+      </c>
+      <c r="T43" s="6">
+        <f>+T17</f>
+        <v>43.823999999999998</v>
+      </c>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
@@ -1914,8 +2656,19 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6">
+        <v>42.631</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1933,8 +2686,19 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6">
+        <v>12.895</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
@@ -1952,8 +2716,19 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6">
+        <v>-14.125999999999999</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
@@ -1971,8 +2746,19 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+    </row>
+    <row r="48" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -1990,8 +2776,19 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6">
+        <v>11.843999999999999</v>
+      </c>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -2009,8 +2806,19 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6">
+        <v>135.03299999999999</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>37</v>
       </c>
@@ -2028,8 +2836,19 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6">
+        <v>6.81</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
@@ -2047,8 +2866,19 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
@@ -2066,8 +2896,19 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+    </row>
+    <row r="53" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
@@ -2086,8 +2927,20 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6">
+        <f>55.49-12.636-14.075+2.614-17.122-7.433+6.72</f>
+        <v>13.558</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+    </row>
+    <row r="54" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
@@ -2106,6 +2959,18 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6">
+        <f>SUM(S44:S53)</f>
+        <v>212.26999999999998</v>
+      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC6A63E-DE74-4A6C-9531-289905C4B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA743D8-00FC-4620-BF9B-FAF70F861E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18690" yWindow="540" windowWidth="18375" windowHeight="19260" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="-42450" yWindow="915" windowWidth="38700" windowHeight="15345" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD0B1-E685-4627-8A01-75A3D2BDF860}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -821,11 +821,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,35 +1097,35 @@
         <v>324.21299999999997</v>
       </c>
       <c r="M8" s="6">
-        <f>+M6-M7</f>
+        <f t="shared" ref="M8:T8" si="2">+M6-M7</f>
         <v>342.93400000000003</v>
       </c>
       <c r="N8" s="6">
-        <f>+N6-N7</f>
+        <f t="shared" si="2"/>
         <v>372.642</v>
       </c>
       <c r="O8" s="6">
-        <f>+O6-O7</f>
+        <f t="shared" si="2"/>
         <v>381.8</v>
       </c>
       <c r="P8" s="6">
-        <f>+P6-P7</f>
+        <f t="shared" si="2"/>
         <v>407.61399999999998</v>
       </c>
       <c r="Q8" s="6">
-        <f>+Q6-Q7</f>
+        <f t="shared" si="2"/>
         <v>444.21699999999993</v>
       </c>
       <c r="R8" s="6">
-        <f>+R6-R7</f>
+        <f t="shared" si="2"/>
         <v>484.82</v>
       </c>
       <c r="S8" s="6">
-        <f>+S6-S7</f>
+        <f t="shared" si="2"/>
         <v>501.15500000000003</v>
       </c>
       <c r="T8" s="6">
-        <f>+T6-T7</f>
+        <f t="shared" si="2"/>
         <v>521.78</v>
       </c>
       <c r="U8" s="6"/>
@@ -1313,67 +1313,67 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:L12" si="2">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:L12" si="3">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145.613</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164.71299999999999</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186.33699999999999</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>212.05100000000002</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250.59399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>278.154</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>327.35199999999998</v>
       </c>
       <c r="M12" s="6">
-        <f>+M11+M10+M9</f>
+        <f t="shared" ref="M12:T12" si="4">+M11+M10+M9</f>
         <v>374.27600000000001</v>
       </c>
       <c r="N12" s="6">
-        <f>+N11+N10+N9</f>
+        <f t="shared" si="4"/>
         <v>407.27</v>
       </c>
       <c r="O12" s="6">
-        <f>+O11+O10+O9</f>
+        <f t="shared" si="4"/>
         <v>416.77</v>
       </c>
       <c r="P12" s="6">
-        <f>+P11+P10+P9</f>
+        <f t="shared" si="4"/>
         <v>429.62</v>
       </c>
       <c r="Q12" s="6">
-        <f>+Q11+Q10+Q9</f>
+        <f t="shared" si="4"/>
         <v>448.447</v>
       </c>
       <c r="R12" s="6">
-        <f>+R11+R10+R9</f>
+        <f t="shared" si="4"/>
         <v>457.07799999999997</v>
       </c>
       <c r="S12" s="6">
-        <f>+S11+S10+S9</f>
+        <f t="shared" si="4"/>
         <v>489.15899999999999</v>
       </c>
       <c r="T12" s="6">
-        <f>+T11+T10+T9</f>
+        <f t="shared" si="4"/>
         <v>509.16199999999998</v>
       </c>
       <c r="U12" s="6"/>
@@ -1387,67 +1387,67 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:L13" si="3">E8-E12</f>
+        <f t="shared" ref="E13:L13" si="5">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.9379999999999882</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-12.829999999999984</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.8859999999999673</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.8950000000000102</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.4549999999999841</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.413999999999987</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.13900000000001</v>
       </c>
       <c r="M13" s="6">
-        <f>+M8-M12</f>
+        <f t="shared" ref="M13:T13" si="6">+M8-M12</f>
         <v>-31.341999999999985</v>
       </c>
       <c r="N13" s="6">
-        <f>+N8-N12</f>
+        <f t="shared" si="6"/>
         <v>-34.627999999999986</v>
       </c>
       <c r="O13" s="6">
-        <f>+O8-O12</f>
+        <f t="shared" si="6"/>
         <v>-34.96999999999997</v>
       </c>
       <c r="P13" s="6">
-        <f>+P8-P12</f>
+        <f t="shared" si="6"/>
         <v>-22.006000000000029</v>
       </c>
       <c r="Q13" s="6">
-        <f>+Q8-Q12</f>
+        <f t="shared" si="6"/>
         <v>-4.230000000000075</v>
       </c>
       <c r="R13" s="6">
-        <f>+R8-R12</f>
+        <f t="shared" si="6"/>
         <v>27.742000000000019</v>
       </c>
       <c r="S13" s="6">
-        <f>+S8-S12</f>
+        <f t="shared" si="6"/>
         <v>11.996000000000038</v>
       </c>
       <c r="T13" s="6">
-        <f>+T8-T12</f>
+        <f t="shared" si="6"/>
         <v>12.617999999999995</v>
       </c>
       <c r="U13" s="6"/>
@@ -1532,67 +1532,67 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:L15" si="4">+E13+E14</f>
+        <f t="shared" ref="E15:L15" si="7">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-15.166999999999987</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-12.528999999999986</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.6579999999999675</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.7670000000000101</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.531999999999984</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.853999999999989</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.1000000000010779E-2</v>
       </c>
       <c r="M15" s="6">
-        <f>+M13+M14</f>
+        <f t="shared" ref="M15:T15" si="8">+M13+M14</f>
         <v>-23.058999999999983</v>
       </c>
       <c r="N15" s="6">
-        <f>+N13+N14</f>
+        <f t="shared" si="8"/>
         <v>-25.853999999999985</v>
       </c>
       <c r="O15" s="6">
-        <f>+O13+O14</f>
+        <f t="shared" si="8"/>
         <v>-20.423999999999971</v>
       </c>
       <c r="P15" s="6">
-        <f>+P13+P14</f>
+        <f t="shared" si="8"/>
         <v>-0.90800000000002967</v>
       </c>
       <c r="Q15" s="6">
-        <f>+Q13+Q14</f>
+        <f t="shared" si="8"/>
         <v>24.299999999999923</v>
       </c>
       <c r="R15" s="6">
-        <f>+R13+R14</f>
+        <f t="shared" si="8"/>
         <v>57.267000000000017</v>
       </c>
       <c r="S15" s="6">
-        <f>+S13+S14</f>
+        <f t="shared" si="8"/>
         <v>46.185000000000038</v>
       </c>
       <c r="T15" s="6">
-        <f>+T13+T14</f>
+        <f t="shared" si="8"/>
         <v>47.792999999999999</v>
       </c>
       <c r="U15" s="6"/>
@@ -1664,67 +1664,67 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:L17" si="5">+E15-E16</f>
+        <f t="shared" ref="E17:L17" si="9">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-16.159999999999986</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-11.989999999999986</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.6979999999999675</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.0500000000000105</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1689999999999845</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.7379999999999889</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.8790000000000111</v>
       </c>
       <c r="M17" s="6">
-        <f>+M15-M16</f>
+        <f t="shared" ref="M17:T17" si="10">+M15-M16</f>
         <v>-25.984999999999985</v>
       </c>
       <c r="N17" s="6">
-        <f>+N15-N16</f>
+        <f t="shared" si="10"/>
         <v>-29.033999999999985</v>
       </c>
       <c r="O17" s="6">
-        <f>+O15-O16</f>
+        <f t="shared" si="10"/>
         <v>-24.08599999999997</v>
       </c>
       <c r="P17" s="6">
-        <f>+P15-P16</f>
+        <f t="shared" si="10"/>
         <v>-3.9690000000000296</v>
       </c>
       <c r="Q17" s="6">
-        <f>+Q15-Q16</f>
+        <f t="shared" si="10"/>
         <v>22.629999999999924</v>
       </c>
       <c r="R17" s="6">
-        <f>+R15-R16</f>
+        <f t="shared" si="10"/>
         <v>53.993000000000016</v>
       </c>
       <c r="S17" s="6">
-        <f>+S15-S16</f>
+        <f t="shared" si="10"/>
         <v>42.631000000000036</v>
       </c>
       <c r="T17" s="6">
-        <f>+T15-T16</f>
+        <f t="shared" si="10"/>
         <v>43.823999999999998</v>
       </c>
       <c r="U17" s="6"/>
@@ -1738,67 +1738,67 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:L18" si="6">+E17/E19</f>
+        <f t="shared" ref="E18:L18" si="11">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-5.3147929500060795E-2</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.9178653352241861E-2</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-2.1745411809011676E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1.3054114947122809E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.0727021455604115E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8171540321927365E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1.5498975523753589E-2</v>
       </c>
       <c r="M18" s="7">
-        <f>+M17/M19</f>
+        <f t="shared" ref="M18:T18" si="12">+M17/M19</f>
         <v>-8.223361498781602E-2</v>
       </c>
       <c r="N18" s="7">
-        <f>+N17/N19</f>
+        <f t="shared" si="12"/>
         <v>-9.1489468974122995E-2</v>
       </c>
       <c r="O18" s="7">
-        <f>+O17/O19</f>
+        <f t="shared" si="12"/>
         <v>-7.5437068960117162E-2</v>
       </c>
       <c r="P18" s="7">
-        <f>+P17/P19</f>
+        <f t="shared" si="12"/>
         <v>-1.2317862296913644E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f>+Q17/Q19</f>
+        <f t="shared" si="12"/>
         <v>6.4416226171262123E-2</v>
       </c>
       <c r="R18" s="7">
-        <f>+R17/R19</f>
+        <f t="shared" si="12"/>
         <v>0.15299498168072614</v>
       </c>
       <c r="S18" s="7">
-        <f>+S17/S19</f>
+        <f t="shared" si="12"/>
         <v>0.11975706432121007</v>
       </c>
       <c r="T18" s="7">
-        <f>+T17/T19</f>
+        <f t="shared" si="12"/>
         <v>0.12284577002859225</v>
       </c>
       <c r="U18" s="7"/>
@@ -1874,47 +1874,47 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="7">+I6/E6-1</f>
+        <f t="shared" ref="I21:K21" si="13">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.83741431074009598</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.82841515192723181</v>
       </c>
       <c r="L21" s="10">
-        <f>+L6/H6-1</f>
+        <f t="shared" ref="L21:T21" si="14">+L6/H6-1</f>
         <v>0.73898411040081502</v>
       </c>
       <c r="M21" s="10">
-        <f>+M6/I6-1</f>
+        <f t="shared" si="14"/>
         <v>0.61387196474520134</v>
       </c>
       <c r="N21" s="10">
-        <f>+N6/J6-1</f>
+        <f t="shared" si="14"/>
         <v>0.43900023911857233</v>
       </c>
       <c r="O21" s="10">
-        <f>+O6/K6-1</f>
+        <f t="shared" si="14"/>
         <v>0.32692614935404807</v>
       </c>
       <c r="P21" s="10">
-        <f>+P6/L6-1</f>
+        <f t="shared" si="14"/>
         <v>0.25440121338067367</v>
       </c>
       <c r="Q21" s="10">
-        <f>+Q6/M6-1</f>
+        <f t="shared" si="14"/>
         <v>0.25428318134024219</v>
       </c>
       <c r="R21" s="10">
-        <f>+R6/N6-1</f>
+        <f t="shared" si="14"/>
         <v>0.25617864545940661</v>
       </c>
       <c r="S21" s="10">
-        <f>+S6/O6-1</f>
+        <f t="shared" si="14"/>
         <v>0.26891267432542976</v>
       </c>
       <c r="T21" s="10">
@@ -1930,31 +1930,31 @@
         <v>46</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" ref="E22:H22" si="8">+E8/E6</f>
+        <f t="shared" ref="E22:H22" si="15">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.76986554460911061</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.7649648197674126</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.75552025485015994</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22:K22" si="9">+I8/I6</f>
+        <f t="shared" ref="I22:K22" si="16">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.79414649997854059</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.79488747486433631</v>
       </c>
       <c r="L22" s="12">
@@ -1962,35 +1962,35 @@
         <v>0.79828284967178642</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" ref="M22:P22" si="10">+M8/M6</f>
+        <f t="shared" ref="M22:P22" si="17">+M8/M6</f>
         <v>0.78558551129009724</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.79387045988593929</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.79258647247121738</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.80009029168138812</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" ref="Q22:R22" si="11">+Q8/Q6</f>
+        <f t="shared" ref="Q22:R22" si="18">+Q8/Q6</f>
         <v>0.81130190526285029</v>
       </c>
       <c r="R22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.82221796356815668</v>
       </c>
       <c r="S22" s="12">
-        <f t="shared" ref="S22:T22" si="12">+S8/S6</f>
+        <f t="shared" ref="S22:T22" si="19">+S8/S6</f>
         <v>0.81988145661452783</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.80861146883751056</v>
       </c>
       <c r="U22" s="12"/>
@@ -2961,13 +2961,18 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="Q54" s="6">
+        <v>439.72800000000001</v>
+      </c>
       <c r="R54" s="6"/>
       <c r="S54" s="6">
         <f>SUM(S44:S53)</f>
         <v>212.26999999999998</v>
       </c>
-      <c r="T54" s="6"/>
+      <c r="T54" s="6">
+        <f>376-S54</f>
+        <v>163.73000000000002</v>
+      </c>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA743D8-00FC-4620-BF9B-FAF70F861E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FCB14-0CC5-4079-9D6A-CBF13E30A9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42450" yWindow="915" windowWidth="38700" windowHeight="15345" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="-29895" yWindow="4995" windowWidth="29715" windowHeight="15315" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     Q2: 410-414m</t>
       </text>
     </comment>
-    <comment ref="AB6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <comment ref="AF6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>Price</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -373,14 +385,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76932</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40297</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76932</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40297</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>151668</xdr:rowOff>
     </xdr:to>
@@ -397,7 +409,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12540028" y="0"/>
+          <a:off x="14327797" y="0"/>
           <a:ext cx="0" cy="9178437"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -733,10 +745,10 @@
   <threadedComment ref="M6" dT="2022-09-02T14:59:12.36" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
     <text>Q2: 410-414m</text>
   </threadedComment>
-  <threadedComment ref="AB6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="AF6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="AB6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="AF6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
 </ThreadedComments>
@@ -746,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD0B1-E685-4627-8A01-75A3D2BDF860}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>112</v>
+        <v>102.27</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -778,7 +790,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>37761.054800000005</v>
+        <v>34480.563164250001</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -809,7 +821,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>36791.054800000005</v>
+        <v>33510.563164250001</v>
       </c>
     </row>
   </sheetData>
@@ -819,28 +831,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="2"/>
+    <col min="3" max="27" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -901,27 +913,39 @@
       <c r="V2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Z2">
+      <c r="W2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2">
         <v>2020</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2021</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AD2" si="0">+AA2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AH2" si="0">+AE2+1</f>
         <v>2022</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -938,7 +962,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -992,15 +1016,27 @@
       <c r="T6" s="4">
         <v>645.279</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="AB6" s="3">
+      <c r="U6" s="4">
+        <v>690.01599999999996</v>
+      </c>
+      <c r="V6" s="4">
+        <v>737.72699999999998</v>
+      </c>
+      <c r="W6" s="4">
+        <v>761.553</v>
+      </c>
+      <c r="X6" s="4">
+        <v>790</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AF6" s="3">
         <f>SUM(K6:N6)</f>
         <v>1675.1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1054,11 +1090,24 @@
       <c r="T7" s="6">
         <v>123.499</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="6">
+        <v>137.756</v>
+      </c>
+      <c r="V7" s="6">
+        <v>144.178</v>
+      </c>
+      <c r="W7" s="6">
+        <v>157.62799999999999</v>
+      </c>
+      <c r="X7" s="6">
+        <f>+X6-X8</f>
+        <v>158</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1128,11 +1177,27 @@
         <f t="shared" si="2"/>
         <v>521.78</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="6">
+        <f>+U6-U7</f>
+        <v>552.26</v>
+      </c>
+      <c r="V8" s="6">
+        <f>+V6-V7</f>
+        <v>593.54899999999998</v>
+      </c>
+      <c r="W8" s="6">
+        <f>+W6-W7</f>
+        <v>603.92499999999995</v>
+      </c>
+      <c r="X8" s="6">
+        <f>+X6*0.8</f>
+        <v>632</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1186,11 +1251,24 @@
       <c r="T9" s="6">
         <v>274.59899999999999</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="6">
+        <v>291.80200000000002</v>
+      </c>
+      <c r="V9" s="6">
+        <v>316.31400000000002</v>
+      </c>
+      <c r="W9" s="6">
+        <v>341.06099999999998</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" ref="X9:X10" si="3">+W9+1</f>
+        <v>342.06099999999998</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1244,11 +1322,24 @@
       <c r="T10" s="6">
         <v>187.005</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="6">
+        <v>187.77199999999999</v>
+      </c>
+      <c r="V10" s="6">
+        <v>207.947</v>
+      </c>
+      <c r="W10" s="6">
+        <v>214.291</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="3"/>
+        <v>215.291</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1302,159 +1393,204 @@
       <c r="T11" s="6">
         <v>47.558</v>
       </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="6">
+        <v>52.408000000000001</v>
+      </c>
+      <c r="V11" s="6">
+        <v>59.896000000000001</v>
+      </c>
+      <c r="W11" s="6">
+        <v>60.993000000000002</v>
+      </c>
+      <c r="X11" s="6">
+        <f>+W11+1</f>
+        <v>61.993000000000002</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:L12" si="3">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:L12" si="4">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>145.613</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164.71299999999999</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>186.33699999999999</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.05100000000002</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250.59399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>278.154</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>327.35199999999998</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" ref="M12:T12" si="4">+M11+M10+M9</f>
+        <f t="shared" ref="M12:U12" si="5">+M11+M10+M9</f>
         <v>374.27600000000001</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>407.27</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>416.77</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>429.62</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448.447</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>457.07799999999997</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>489.15899999999999</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>509.16199999999998</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="6">
+        <f t="shared" si="5"/>
+        <v>531.98199999999997</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" ref="V12:W12" si="6">+V11+V10+V9</f>
+        <v>584.15700000000004</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="6"/>
+        <v>616.34500000000003</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" ref="X12" si="7">+X11+X10+X9</f>
+        <v>619.34500000000003</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:L13" si="5">E8-E12</f>
+        <f t="shared" ref="E13:L13" si="8">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-8.9379999999999882</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-12.829999999999984</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-9.8859999999999673</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-4.8950000000000102</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.4549999999999841</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.413999999999987</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.13900000000001</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" ref="M13:T13" si="6">+M8-M12</f>
+        <f t="shared" ref="M13:U13" si="9">+M8-M12</f>
         <v>-31.341999999999985</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-34.627999999999986</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-34.96999999999997</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-22.006000000000029</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4.230000000000075</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.742000000000019</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.996000000000038</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.617999999999995</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="6">
+        <f t="shared" si="9"/>
+        <v>20.27800000000002</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" ref="V13:W13" si="10">+V8-V12</f>
+        <v>9.3919999999999391</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="10"/>
+        <v>-12.420000000000073</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" ref="X13" si="11">+X8-X12</f>
+        <v>12.654999999999973</v>
+      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1521,85 +1657,114 @@
         <f>-1.477+36.652</f>
         <v>35.175000000000004</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="6">
+        <v>35.857999999999997</v>
+      </c>
+      <c r="V14" s="6">
+        <v>44.433999999999997</v>
+      </c>
+      <c r="W14" s="6">
+        <v>44.216000000000001</v>
+      </c>
+      <c r="X14" s="6">
+        <f>+W14</f>
+        <v>44.216000000000001</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:L15" si="7">+E13+E14</f>
+        <f t="shared" ref="E15:L15" si="12">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-15.166999999999987</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-12.528999999999986</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-9.6579999999999675</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-4.7670000000000101</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.531999999999984</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10.853999999999989</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.1000000000010779E-2</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" ref="M15:T15" si="8">+M13+M14</f>
+        <f t="shared" ref="M15:U15" si="13">+M13+M14</f>
         <v>-23.058999999999983</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-25.853999999999985</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-20.423999999999971</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.90800000000002967</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>24.299999999999923</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>57.267000000000017</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>46.185000000000038</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>47.792999999999999</v>
       </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="6">
+        <f t="shared" si="13"/>
+        <v>56.136000000000017</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" ref="V15:X15" si="14">+V13+V14</f>
+        <v>53.825999999999937</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="14"/>
+        <v>31.795999999999928</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" si="14"/>
+        <v>56.870999999999974</v>
+      </c>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1653,159 +1818,204 @@
       <c r="T16" s="6">
         <v>3.9689999999999999</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="6">
+        <v>4.4390000000000001</v>
+      </c>
+      <c r="V16" s="6">
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="W16" s="6">
+        <v>7.1539999999999999</v>
+      </c>
+      <c r="X16" s="6">
+        <f>+X15*0.1</f>
+        <v>5.6870999999999974</v>
+      </c>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:L17" si="9">+E15-E16</f>
+        <f t="shared" ref="E17:L17" si="15">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-16.159999999999986</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-11.989999999999986</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-6.6979999999999675</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-4.0500000000000105</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.1689999999999845</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.7379999999999889</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-4.8790000000000111</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" ref="M17:T17" si="10">+M15-M16</f>
+        <f t="shared" ref="M17:U17" si="16">+M15-M16</f>
         <v>-25.984999999999985</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-29.033999999999985</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-24.08599999999997</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-3.9690000000000296</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22.629999999999924</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>53.993000000000016</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>42.631000000000036</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>43.823999999999998</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="6">
+        <f t="shared" si="16"/>
+        <v>51.697000000000017</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" ref="V17:X17" si="17">+V15-V16</f>
+        <v>45.593999999999937</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="17"/>
+        <v>24.641999999999928</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="17"/>
+        <v>51.18389999999998</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:L18" si="11">+E17/E19</f>
+        <f t="shared" ref="E18:L18" si="18">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-5.3147929500060795E-2</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-3.9178653352241861E-2</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-2.1745411809011676E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.3054114947122809E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2.0727021455604115E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2.8171540321927365E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.5498975523753589E-2</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" ref="M18:T18" si="12">+M17/M19</f>
+        <f t="shared" ref="M18:U18" si="19">+M17/M19</f>
         <v>-8.223361498781602E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-9.1489468974122995E-2</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-7.5437068960117162E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-1.2317862296913644E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.4416226171262123E-2</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.15299498168072614</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.11975706432121007</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.12284577002859225</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="7">
+        <f t="shared" si="19"/>
+        <v>0.14455240678345246</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" ref="V18:X18" si="20">+V17/V19</f>
+        <v>0.12632016401617979</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="20"/>
+        <v>6.7869713945763521E-2</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="20"/>
+        <v>0.14097218779435819</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1859,11 +2069,24 @@
       <c r="T19" s="6">
         <v>356.74</v>
       </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="21" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U19" s="6">
+        <v>357.63499999999999</v>
+      </c>
+      <c r="V19" s="6">
+        <v>360.94</v>
+      </c>
+      <c r="W19" s="6">
+        <v>363.07799999999997</v>
+      </c>
+      <c r="X19" s="6">
+        <f>+W19</f>
+        <v>363.07799999999997</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="21" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1874,87 +2097,103 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="13">+I6/E6-1</f>
+        <f t="shared" ref="I21:K21" si="21">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.83741431074009598</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.82841515192723181</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" ref="L21:T21" si="14">+L6/H6-1</f>
+        <f t="shared" ref="L21:S21" si="22">+L6/H6-1</f>
         <v>0.73898411040081502</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.61387196474520134</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.43900023911857233</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.32692614935404807</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.25440121338067367</v>
       </c>
       <c r="Q21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.25428318134024219</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.25617864545940661</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.26891267432542976</v>
       </c>
       <c r="T21" s="10">
         <f>+T6/P6-1</f>
         <v>0.26659404074902837</v>
       </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="U21" s="10">
+        <f>+U6/Q6-1</f>
+        <v>0.26022033254434418</v>
+      </c>
+      <c r="V21" s="10">
+        <f>+V6/R6-1</f>
+        <v>0.25112906152643344</v>
+      </c>
+      <c r="W21" s="10">
+        <f>+W6/S6-1</f>
+        <v>0.24588836373809198</v>
+      </c>
+      <c r="X21" s="10">
+        <f>+X6/T6-1</f>
+        <v>0.22427663072872361</v>
+      </c>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" ref="E22:H22" si="15">+E8/E6</f>
+        <f t="shared" ref="E22:H22" si="23">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.76986554460911061</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.7649648197674126</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.75552025485015994</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22:K22" si="16">+I8/I6</f>
+        <f t="shared" ref="I22:K22" si="24">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.79414649997854059</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.79488747486433631</v>
       </c>
       <c r="L22" s="12">
@@ -1962,42 +2201,58 @@
         <v>0.79828284967178642</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" ref="M22:P22" si="17">+M8/M6</f>
+        <f t="shared" ref="M22:P22" si="25">+M8/M6</f>
         <v>0.78558551129009724</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.79387045988593929</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.79258647247121738</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.80009029168138812</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" ref="Q22:R22" si="18">+Q8/Q6</f>
+        <f t="shared" ref="Q22:R22" si="26">+Q8/Q6</f>
         <v>0.81130190526285029</v>
       </c>
       <c r="R22" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.82221796356815668</v>
       </c>
       <c r="S22" s="12">
-        <f t="shared" ref="S22:T22" si="19">+S8/S6</f>
+        <f t="shared" ref="S22:U22" si="27">+S8/S6</f>
         <v>0.81988145661452783</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.80861146883751056</v>
       </c>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-    </row>
-    <row r="24" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="12">
+        <f t="shared" si="27"/>
+        <v>0.80035825256225945</v>
+      </c>
+      <c r="V22" s="12">
+        <f t="shared" ref="V22:X22" si="28">+V8/V6</f>
+        <v>0.80456456114524755</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="28"/>
+        <v>0.79301768885422286</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="28"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="24" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2034,8 +2289,12 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2068,8 +2327,12 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2106,8 +2369,12 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -2140,8 +2407,12 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
@@ -2174,8 +2445,12 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2208,8 +2483,12 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -2246,8 +2525,12 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -2280,8 +2563,12 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
@@ -2318,8 +2605,12 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-    </row>
-    <row r="34" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="34" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -2352,8 +2643,12 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -2386,8 +2681,12 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -2424,8 +2723,12 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -2462,8 +2765,12 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2496,8 +2803,12 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
@@ -2530,8 +2841,12 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>43</v>
       </c>
@@ -2564,8 +2879,12 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
@@ -2602,8 +2921,12 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-    </row>
-    <row r="43" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="43" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
@@ -2637,8 +2960,12 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-    </row>
-    <row r="44" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
@@ -2667,8 +2994,12 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -2697,8 +3028,12 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-    </row>
-    <row r="46" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
@@ -2727,8 +3062,12 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-    </row>
-    <row r="47" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
@@ -2757,8 +3096,12 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
-    </row>
-    <row r="48" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -2787,8 +3130,12 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
-    </row>
-    <row r="49" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -2817,8 +3164,12 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-    </row>
-    <row r="50" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>37</v>
       </c>
@@ -2847,8 +3198,12 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
-    </row>
-    <row r="51" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
@@ -2877,8 +3232,12 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
-    </row>
-    <row r="52" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
@@ -2907,8 +3266,12 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
-    </row>
-    <row r="53" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
@@ -2939,8 +3302,12 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
-    </row>
-    <row r="54" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
@@ -2976,6 +3343,10 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
